--- a/biology/Botanique/Thelocactus_bicolor/Thelocactus_bicolor.xlsx
+++ b/biology/Botanique/Thelocactus_bicolor/Thelocactus_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thelocactus bicolor est une espèce de plantes à fleurs de la famille des Cactaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est endémique dans les États de Chihuahua, Coahuila de Zaragoza, Durango, Nuevo Leon et Tamaulipas au Mexique et au Texas aux États-Unis. Elle est cultivée dans le monde entier comme plante ornementale.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante succulente vivace charnue, globuleuse, épineuse avec des fleurs rouges et violettes. Elle atteint environ 20 cm en hauteur et en diamètre. Elle a une tige épineuse solitaire en forme de colonne ou sphérique. La tige a plus de 10 côtes saillantes, revêtues de tubercules prononcés d'où partent des épines radiales jaunes et rouges et quatre épines centrales jaune. Elle fleurit facilement, la fleur nait à l'apex et mesure 6 cm de diamètre.
 </t>
